--- a/biology/Origine et évolution du vivant/Radiation_évolutive/Radiation_évolutive.xlsx
+++ b/biology/Origine et évolution du vivant/Radiation_évolutive/Radiation_évolutive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Radiation_%C3%A9volutive</t>
+          <t>Radiation_évolutive</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une radiation évolutive est une évolution rapide, à partir d'un ancêtre commun, d'un taxon ou d'un ensemble d'espèces caractérisées par une grande diversité écologique et morphologique. L'expression explosion évolutive est aussi utilisée pour parler de cette rapide divergence évolutive à partir d'un unique ancêtre[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une radiation évolutive est une évolution rapide, à partir d'un ancêtre commun, d'un taxon ou d'un ensemble d'espèces caractérisées par une grande diversité écologique et morphologique. L'expression explosion évolutive est aussi utilisée pour parler de cette rapide divergence évolutive à partir d'un unique ancêtre.
 Dans le cas le plus fréquent où chaque nouvelle espèce est adaptée à une niche particulière, on parle aussi de radiation adaptative ou de diversification.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Radiation_%C3%A9volutive</t>
+          <t>Radiation_évolutive</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Principes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs principes peuvent expliquer les changements conduisant à de nouvelles espèces.
-Selon les lois de la sélection naturelle dans la théorie de l'évolution, ces espèces qui disparaissent libèrent des niches écologiques pour d'autres espèces, qui sont alors susceptibles d'évoluer. Cette évolution est appelée spéciation. À l'origine, la théorie de l'évolution supposait que chaque organisme fossile avait un ancêtre qui devait être moins complexe - on disait « moins évolué » - et des descendants qui eux se devaient d'être « plus évolués ». En pratique, les espèces évoluent par bonds[2].
+Selon les lois de la sélection naturelle dans la théorie de l'évolution, ces espèces qui disparaissent libèrent des niches écologiques pour d'autres espèces, qui sont alors susceptibles d'évoluer. Cette évolution est appelée spéciation. À l'origine, la théorie de l'évolution supposait que chaque organisme fossile avait un ancêtre qui devait être moins complexe - on disait « moins évolué » - et des descendants qui eux se devaient d'être « plus évolués ». En pratique, les espèces évoluent par bonds.
 On peut également supposer que des mutations provoquent des changements, mais ce phénomène n'est pas retenu pour expliquer une explosion radiative. Ce serait plutôt une sélection progressive d'un ensemble de caractères particuliers. La provenance de ces phénotypes peut être très antérieure à leur sélection dans cet ensemble.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Radiation_%C3%A9volutive</t>
+          <t>Radiation_évolutive</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Une radiation évolutive est la conséquence de l'apparition de nouvelles niches écologiques ou de la modification de celles existantes, pouvant provenir de plusieurs évènements :
 une extinction massive quel que soit l'évènement provocateur (climat, maladie, météorite, super-volcan, etc.) ;
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Radiation_%C3%A9volutive</t>
+          <t>Radiation_évolutive</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Les "explosions" radiatives</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Explosion d'Avalon  (575 Ma)
 Explosion cambrienne (entre −541 et −530 Ma)
